--- a/biology/Zoologie/Bécasse/Bécasse.xlsx
+++ b/biology/Zoologie/Bécasse/Bécasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casse</t>
+          <t>Bécasse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolopax
 Scolopax, la Bécasse, est un genre d'oiseaux limicoles de la famille des Scolopacidae. Il est constitué de huit espèces qui ont pour nom normalisé « Bécasse » en raison de leur bec long et pointu. D'après Alan P. Peterson, ce genre est le seul de la sous-famille des Scolopacinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casse</t>
+          <t>Bécasse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Alimentation et santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bécasses sont exposées au saturnisme aviaire. Comme elles se nourrissent essentiellement de vers de terre, elles sont donc vulnérables aux facteurs de régression des lombrics (certains pesticides notamment et diminutions du taux de matière organique présente en surface du sol).
-Elles sont aussi surexposées aux métaux ou radionucléïdes que les lombrics peuvent fortement accumuler dans les sols comme on l'a notamment montré en Europe de l'Est et du nord après la catastrophe de Tchernobyl où, en Norvège par exemple, des taux de césium dépassant la norme de 600 Bq/kg de masse fraîche ont été dépassés en 1986 pour ensuite rapidement diminuer de 40 % chez les vers de terre et de 95 % chez la bécasse (de 1986 à 1990) alors que le taux de radiocésium ne diminuait pas dans le sol, ce qui laisse penser que c'est sa biodisponibilité qui a diminué[1].
+Elles sont aussi surexposées aux métaux ou radionucléïdes que les lombrics peuvent fortement accumuler dans les sols comme on l'a notamment montré en Europe de l'Est et du nord après la catastrophe de Tchernobyl où, en Norvège par exemple, des taux de césium dépassant la norme de 600 Bq/kg de masse fraîche ont été dépassés en 1986 pour ensuite rapidement diminuer de 40 % chez les vers de terre et de 95 % chez la bécasse (de 1986 à 1990) alors que le taux de radiocésium ne diminuait pas dans le sol, ce qui laisse penser que c'est sa biodisponibilité qui a diminué.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casse</t>
+          <t>Bécasse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le peintre anglais William Turner, réalisa en 1813 une aquarelle intitulée Tir de la bécasse sur Otley Chevin, conservée à la Wallace Collection à Londres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peintre anglais William Turner, réalisa en 1813 une aquarelle intitulée Tir de la bécasse sur Otley Chevin, conservée à la Wallace Collection à Londres.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casse</t>
+          <t>Bécasse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.9, 2011)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.9, 2011) :
 Scolopax rusticola – Bécasse des bois
 Scolopax mira – Bécasse d'Amami
 Scolopax saturata – Bécasse de Java
